--- a/StructureDefinition-ext-R5-ConceptMap.property.xlsx
+++ b/StructureDefinition-ext-R5-ConceptMap.property.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `ConceptMap.property` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `ConceptMap.property` is mapped to FHIR R4 structure `ConceptMap`, but has no target element specified.</t>
+Element `ConceptMap.property` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:ConceptMap</t>
   </si>
   <si>
     <t>ID</t>
@@ -345,7 +345,7 @@
   </si>
   <si>
     <t>Element `ConceptMap.property.code` is part of an existing definition because parent element `ConceptMap.property` requires a cross-version extension.
-Element `ConceptMap.property.code` is mapped to FHIR R4 structure `ConceptMap`, but has no target element specified.</t>
+Element `ConceptMap.property.code` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -428,7 +428,7 @@
   </si>
   <si>
     <t>Element `ConceptMap.property.uri` is part of an existing definition because parent element `ConceptMap.property` requires a cross-version extension.
-Element `ConceptMap.property.uri` is mapped to FHIR R4 structure `ConceptMap`, but has no target element specified.</t>
+Element `ConceptMap.property.uri` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>Extension.extension:uri.id</t>
@@ -456,7 +456,7 @@
   </si>
   <si>
     <t>Element `ConceptMap.property.description` is part of an existing definition because parent element `ConceptMap.property` requires a cross-version extension.
-Element `ConceptMap.property.description` is mapped to FHIR R4 structure `ConceptMap`, but has no target element specified.</t>
+Element `ConceptMap.property.description` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -484,7 +484,7 @@
   </si>
   <si>
     <t>Element `ConceptMap.property.type` is part of an existing definition because parent element `ConceptMap.property` requires a cross-version extension.
-Element `ConceptMap.property.type` is mapped to FHIR R4 structure `ConceptMap`, but has no target element specified.</t>
+Element `ConceptMap.property.type` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -512,7 +512,8 @@
   </si>
   <si>
     <t>Element `ConceptMap.property.system` is part of an existing definition because parent element `ConceptMap.property` requires a cross-version extension.
-Element `ConceptMap.property.system` is mapped to FHIR R4 structure `ConceptMap`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.property.system` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `ConceptMap.property.system` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>Extension.extension:system.id</t>
@@ -878,7 +879,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="128.87890625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="195.38671875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-ConceptMap.property.xlsx
+++ b/StructureDefinition-ext-R5-ConceptMap.property.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="172">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `ConceptMap.property` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `ConceptMap.property` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+Element `ConceptMap.property` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -345,7 +345,7 @@
   </si>
   <si>
     <t>Element `ConceptMap.property.code` is part of an existing definition because parent element `ConceptMap.property` requires a cross-version extension.
-Element `ConceptMap.property.code` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+Element `ConceptMap.property.code` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -392,6 +392,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.property.code</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -428,7 +431,7 @@
   </si>
   <si>
     <t>Element `ConceptMap.property.uri` is part of an existing definition because parent element `ConceptMap.property` requires a cross-version extension.
-Element `ConceptMap.property.uri` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+Element `ConceptMap.property.uri` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>Extension.extension:uri.id</t>
@@ -440,6 +443,9 @@
     <t>Extension.extension:uri.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.property.uri</t>
+  </si>
+  <si>
     <t>Extension.extension:uri.value[x]</t>
   </si>
   <si>
@@ -456,7 +462,7 @@
   </si>
   <si>
     <t>Element `ConceptMap.property.description` is part of an existing definition because parent element `ConceptMap.property` requires a cross-version extension.
-Element `ConceptMap.property.description` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+Element `ConceptMap.property.description` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -468,6 +474,9 @@
     <t>Extension.extension:description.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.property.description</t>
+  </si>
+  <si>
     <t>Extension.extension:description.value[x]</t>
   </si>
   <si>
@@ -484,7 +493,7 @@
   </si>
   <si>
     <t>Element `ConceptMap.property.type` is part of an existing definition because parent element `ConceptMap.property` requires a cross-version extension.
-Element `ConceptMap.property.type` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+Element `ConceptMap.property.type` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -494,6 +503,9 @@
   </si>
   <si>
     <t>Extension.extension:type.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.property.type</t>
   </si>
   <si>
     <t>Extension.extension:type.value[x]</t>
@@ -513,7 +525,7 @@
   <si>
     <t>Element `ConceptMap.property.system` is part of an existing definition because parent element `ConceptMap.property` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.property.system` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ConceptMap.property.system` is will have a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+Element `ConceptMap.property.system` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>Extension.extension:system.id</t>
@@ -523,6 +535,9 @@
   </si>
   <si>
     <t>Extension.extension:system.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.property.system</t>
   </si>
   <si>
     <t>Extension.extension:system.value[x]</t>
@@ -1687,7 +1702,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1729,7 +1744,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>87</v>
@@ -1744,15 +1759,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1775,7 +1790,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>103</v>
@@ -1832,7 +1847,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1844,21 +1859,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1883,14 +1898,14 @@
         <v>95</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1959,7 +1974,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -2062,7 +2077,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2167,7 +2182,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2210,7 +2225,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2252,7 +2267,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>87</v>
@@ -2267,15 +2282,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2301,10 +2316,10 @@
         <v>116</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2355,7 +2370,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2367,21 +2382,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2406,14 +2421,14 @@
         <v>95</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2482,7 +2497,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -2585,7 +2600,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -2690,7 +2705,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -2733,7 +2748,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2775,7 +2790,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>87</v>
@@ -2790,15 +2805,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2824,10 +2839,10 @@
         <v>88</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2878,7 +2893,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2890,21 +2905,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2929,14 +2944,14 @@
         <v>95</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3005,7 +3020,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -3108,7 +3123,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -3213,7 +3228,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -3256,7 +3271,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3298,7 +3313,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>87</v>
@@ -3313,15 +3328,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3344,13 +3359,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3401,7 +3416,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3413,21 +3428,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3452,14 +3467,14 @@
         <v>95</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3528,7 +3543,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -3631,7 +3646,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -3736,7 +3751,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -3779,7 +3794,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3821,7 +3836,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -3836,15 +3851,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3867,13 +3882,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3924,7 +3939,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -3936,18 +3951,18 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4029,7 +4044,7 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>87</v>
@@ -4044,15 +4059,15 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4075,13 +4090,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4132,7 +4147,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4144,10 +4159,10 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-ConceptMap.property.xlsx
+++ b/StructureDefinition-ext-R5-ConceptMap.property.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -543,7 +543,7 @@
     <t>Extension.extension:system.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CodeSystem|0.0.1-snapshot-3|CodeSystem|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CodeSystem|CodeSystem)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-ConceptMap.property.xlsx
+++ b/StructureDefinition-ext-R5-ConceptMap.property.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="170">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -344,8 +344,7 @@
     <t>A code that is used to identify the property. The code is used internally (in ConceptMap.group.element.target.property.code) and also in the $translate operation.</t>
   </si>
   <si>
-    <t>Element `ConceptMap.property.code` is part of an existing definition because parent element `ConceptMap.property` requires a cross-version extension.
-Element `ConceptMap.property.code` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+    <t>Element `ConceptMap.property.code` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -392,9 +391,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.property.code</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -430,8 +426,7 @@
     <t>Reference to the formal meaning of the property.</t>
   </si>
   <si>
-    <t>Element `ConceptMap.property.uri` is part of an existing definition because parent element `ConceptMap.property` requires a cross-version extension.
-Element `ConceptMap.property.uri` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+    <t>Element `ConceptMap.property.uri` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>Extension.extension:uri.id</t>
@@ -443,9 +438,6 @@
     <t>Extension.extension:uri.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.property.uri</t>
-  </si>
-  <si>
     <t>Extension.extension:uri.value[x]</t>
   </si>
   <si>
@@ -461,8 +453,7 @@
     <t>A description of the property - why it is defined, and how its value might be used.</t>
   </si>
   <si>
-    <t>Element `ConceptMap.property.description` is part of an existing definition because parent element `ConceptMap.property` requires a cross-version extension.
-Element `ConceptMap.property.description` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+    <t>Element `ConceptMap.property.description` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>Extension.extension:description.id</t>
@@ -474,9 +465,6 @@
     <t>Extension.extension:description.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.property.description</t>
-  </si>
-  <si>
     <t>Extension.extension:description.value[x]</t>
   </si>
   <si>
@@ -492,8 +480,7 @@
     <t>The type of the property value.</t>
   </si>
   <si>
-    <t>Element `ConceptMap.property.type` is part of an existing definition because parent element `ConceptMap.property` requires a cross-version extension.
-Element `ConceptMap.property.type` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
+    <t>Element `ConceptMap.property.type` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -505,12 +492,18 @@
     <t>Extension.extension:type.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.property.type</t>
-  </si>
-  <si>
     <t>Extension.extension:type.value[x]</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The type of a property value.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-conceptmap-property-type-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:system</t>
   </si>
   <si>
@@ -523,8 +516,7 @@
     <t>The CodeSystem that defines the codes from which values of type ```code``` in property values.</t>
   </si>
   <si>
-    <t>Element `ConceptMap.property.system` is part of an existing definition because parent element `ConceptMap.property` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.property.system` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ConceptMap.property.system` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
 Element `ConceptMap.property.system` has a context of ConceptMap based on following the parent source element upwards and mapping to `ConceptMap`.</t>
   </si>
   <si>
@@ -537,13 +529,10 @@
     <t>Extension.extension:system.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConceptMap.property.system</t>
-  </si>
-  <si>
     <t>Extension.extension:system.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CodeSystem|CodeSystem)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CodeSystem|0.0.1-snapshot-3|CodeSystem|4.0.1)
 </t>
   </si>
   <si>
@@ -904,8 +893,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="24.12890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="75.5234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1702,72 +1691,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1790,7 +1779,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>103</v>
@@ -1847,33 +1836,33 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1898,14 +1887,14 @@
         <v>95</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1974,7 +1963,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -2077,7 +2066,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2182,7 +2171,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2225,7 +2214,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2267,30 +2256,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2316,10 +2305,10 @@
         <v>116</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2370,33 +2359,33 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2421,14 +2410,14 @@
         <v>95</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2497,7 +2486,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -2600,7 +2589,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -2705,7 +2694,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -2748,7 +2737,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2790,30 +2779,30 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2839,10 +2828,10 @@
         <v>88</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2893,33 +2882,33 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2944,14 +2933,14 @@
         <v>95</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3020,7 +3009,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>107</v>
@@ -3123,7 +3112,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>109</v>
@@ -3228,7 +3217,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>115</v>
@@ -3271,7 +3260,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3313,30 +3302,30 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3359,13 +3348,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3392,13 +3381,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3416,33 +3405,33 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3467,14 +3456,14 @@
         <v>95</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3543,7 +3532,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>107</v>
@@ -3646,7 +3635,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>109</v>
@@ -3751,7 +3740,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>115</v>
@@ -3794,7 +3783,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3836,30 +3825,30 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3882,13 +3871,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -3939,30 +3928,30 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4044,30 +4033,30 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4090,13 +4079,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4147,22 +4136,22 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AK31" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
